--- a/VALOR/Importaciones por Lugar de Salida 2017 - Mensual - Editado.xlsx
+++ b/VALOR/Importaciones por Lugar de Salida 2017 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\CIF\2017\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067AAFFC-46A1-4163-A05B-4E7C48BBEDD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC00F57-7F91-417D-BF6D-5B9DB1B0CBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impo Puerto Monto CIF 2017" sheetId="2" r:id="rId1"/>
@@ -358,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -417,11 +417,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -453,6 +549,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,27 +559,430 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,6 +993,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E76C4366-77A8-4B10-843B-6D1C9C7068E0}" name="imp_salida_valor_2017" displayName="imp_salida_valor_2017" ref="A1:M59" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M59" xr:uid="{F1117D55-ABC5-410D-A6F0-44B19AD27C19}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{30F5A994-EAC5-46FB-B15E-04954BF25547}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8911FA0B-B970-4DAC-8C05-715A76DC6D92}" name="Enero - 2017" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{03301F5D-D4A9-4E4C-A00C-003B621955AC}" name="Febrero - 2017" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B019DF70-F7F9-4BB4-B410-68B30B9FA5E8}" name="Marzo - 2017" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E36426EC-A6D3-48E8-99B8-949B55540DDE}" name="Abril - 2017" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{6B9C7A8D-940B-4B63-B347-5D1E39A992ED}" name="Mayo - 2017" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{29EBBB79-EDF9-4949-A2B8-A10D48B0E481}" name="Junio - 2017" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{88958990-ACA6-407E-9FA9-8CF8BB78E428}" name="Julio - 2017" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E6B02C6C-EBF6-4A7D-B8CE-BC98AFA1C7A5}" name="Agosto - 2017" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{A86074DE-3FF5-46F8-8E5E-E84A6D63BCAA}" name="Septiembre - 2017" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{04971C30-CA86-418F-94F5-6A1220DDD83D}" name="Octubre - 2017" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{BCF87932-165A-4780-8B34-91D5E9DFA0A9}" name="Noviembre - 2017" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{920935E7-C234-4DFC-A5A1-4AD72F9F35C9}" name="Diciembre - 201" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,41 +1311,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -867,7 +1389,7 @@
       <c r="N4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -3489,7 +4011,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3503,2429 +4025,2429 @@
     <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="3" customWidth="1"/>
     <col min="13" max="13" width="16" style="3" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
         <v>79632.160000000018</v>
       </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
         <v>1877.19</v>
       </c>
-      <c r="J2" s="23">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23">
-        <v>0</v>
-      </c>
-      <c r="L2" s="23">
-        <v>0</v>
-      </c>
-      <c r="M2" s="23">
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
         <v>34240.11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="15">
         <v>672002164.2399956</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="15">
         <v>627707207.36999989</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="15">
         <v>746978580.82999921</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="15">
         <v>622307237.07999933</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="15">
         <v>662683435.04999959</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="15">
         <v>723117963.56999803</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="15">
         <v>712305468.07000029</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="15">
         <v>741762716.80999744</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="15">
         <v>650100906.33000278</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="15">
         <v>778106283.68999624</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="15">
         <v>885929643.20999885</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>710288772.29999554</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="15">
         <v>2090.54</v>
       </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
         <v>20823.23</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
         <v>448.17</v>
       </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
         <v>26723.1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="15">
         <v>71710.569999999992</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <v>113246.64000000001</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>97583.859999999986</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <v>54724.55</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>81226.680000000008</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <v>51480.609999999993</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <v>28446.800000000003</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <v>95823.269999999975</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <v>105931.42000000001</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="15">
         <v>4708456.1100000013</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <v>89021.46</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>68394.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
         <v>2268.5300000000002</v>
       </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="15">
         <v>22803.91</v>
       </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
         <v>43209.17</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="15">
         <v>28818.969999999998</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="15">
         <v>9227</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="15">
         <v>12800</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="15">
         <v>1782.31</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="15">
         <v>1319.1699999999998</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="15">
         <v>9672.48</v>
       </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
         <v>44896.14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
         <v>363.17</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>2209.36</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="15">
         <v>9776.81</v>
       </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
         <v>40292.559999999998</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>4429.3399999999992</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
         <v>5816.48</v>
       </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
         <v>28302.66</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="15">
         <v>8264.4</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>21757.09</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="15">
         <v>82735028.859999985</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <v>85826646.739999995</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <v>69035352.959999949</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="15">
         <v>52384676.919999987</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>36765466.079999998</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <v>65273245.720000014</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <v>40153432.230000012</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="15">
         <v>33948357.139999993</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>51503305.220000006</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <v>39820341.709999993</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>45918203.730000019</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <v>51179362.169999957</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="15">
         <v>13514456.429999994</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="15">
         <v>11993953.300000004</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="15">
         <v>14224864.91</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="15">
         <v>12986770.989999996</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>13050310.729999993</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <v>14408459.530000001</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <v>12252195.189999999</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <v>16533281.249999991</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <v>15282915.479999993</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <v>14785511.469999989</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <v>26940811.490000024</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>17434357.640000004</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <v>32802.050000000003</v>
       </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-      <c r="M12" s="23">
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="15">
         <v>107160</v>
       </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
         <v>5908</v>
       </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <v>3158</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
         <v>1833872.59</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <v>6397336.6699999999</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="15">
         <v>3937062.75</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <v>10627264.27</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <v>8756560</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
         <v>2169115.79</v>
       </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
         <v>8898396.5</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>7693142.0600000005</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
         <v>10266053.5</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>4575057.0199999996</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>1634485.04</v>
       </c>
-      <c r="K14" s="23">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
         <v>21728284.91</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="15">
         <v>15565080.710000001</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <v>13437664.859999999</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>12699156.83</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <v>10168162.859999999</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>8408631.7899999991</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="15">
         <v>14856157.039999999</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="15">
         <v>11699501.27</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="15">
         <v>14133674.18</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="15">
         <v>17805288.690000001</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="15">
         <v>10906130.92</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <v>19070095.829999998</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <v>17800672.939999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="15">
         <v>1271060.54</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="15">
         <v>3143736.33</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="15">
         <v>1950350.43</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="15">
         <v>1549462.21</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="15">
         <v>1305581.71</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="15">
         <v>2215314.62</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="15">
         <v>1370726.6600000001</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="15">
         <v>1288488.2899999998</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="15">
         <v>1686291.7299999995</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="15">
         <v>2477188.9700000007</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="15">
         <v>3728344.8100000005</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <v>2523001.4500000002</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="15">
         <v>206735.67</v>
       </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
         <v>29200</v>
       </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
         <v>53290</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>166022.94</v>
       </c>
-      <c r="J17" s="23">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <v>22501.309999999994</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <v>78339.86</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="15">
         <v>83057.89</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="15">
         <v>407724.44</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="15">
         <v>840777.09</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="15">
         <v>1357579.4000000001</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="15">
         <v>723185.32000000007</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="15">
         <v>572514.30000000005</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="15">
         <v>710586.29000000015</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="15">
         <v>1974432.2499999998</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="15">
         <v>673646.92</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="15">
         <v>1257467.95</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="15">
         <v>621296.97</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="20">
         <v>1776778.7599999995</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="15">
         <v>3182552.4699999997</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="15">
         <v>3264592.54</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="15">
         <v>913388.97</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="15">
         <v>5968313.0100000007</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>1524778.97</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>1870552.78</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>2376273.29</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="15">
         <v>4363581.91</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="15">
         <v>2528085.31</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="15">
         <v>3504184.5000000005</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="15">
         <v>1766911.27</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <v>2144429.5699999998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="23">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="B20" s="15">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
         <v>3314.4</v>
       </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0</v>
-      </c>
-      <c r="K20" s="23">
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="15">
         <v>687233.5199999999</v>
       </c>
-      <c r="C21" s="23">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
         <v>62831.41</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>62831.41</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>483409.64</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="15">
         <v>21922.220000000005</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="15">
         <v>585973.4099999998</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="15">
         <v>770952.36</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="15">
         <v>707074.89</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="15">
         <v>24357.66</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="15">
         <v>571644.79999999993</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <v>59749.31</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="15">
         <v>241746.52</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <v>171957.62</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="15">
         <v>659296.5</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="15">
         <v>194604.2</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="15">
         <v>178898.92</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="15">
         <v>178122.25</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="15">
         <v>167043.5</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="15">
         <v>220026.09</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="15">
         <v>159337.85999999999</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="15">
         <v>141341.88</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="15">
         <v>245537.88999999998</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="20">
         <v>188274.58</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="15">
         <v>853808.5</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="15">
         <v>847308.71000000008</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="15">
         <v>1947565.4</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="15">
         <v>339164.74</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="15">
         <v>1939127.3599999999</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="15">
         <v>17960.25</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="15">
         <v>17899999.059999999</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="15">
         <v>21480145.760000002</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="15">
         <v>1405453.98</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="15">
         <v>20413576.270000003</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="15">
         <v>3060479.3899999997</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="20">
         <v>8394306.1799999997</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="15">
         <v>64356963.380000018</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="15">
         <v>49814357.490000024</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="15">
         <v>64862205.470000006</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="15">
         <v>70432333.460000023</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="15">
         <v>66253113.780000016</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="15">
         <v>72235380.62999998</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="15">
         <v>70389506.310000017</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="15">
         <v>84879160.069999933</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="15">
         <v>66444111.920000002</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="15">
         <v>72568177.750000075</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="15">
         <v>36869120.32</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="20">
         <v>82492037.879999936</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="23">
-        <v>0</v>
-      </c>
-      <c r="C25" s="23">
-        <v>0</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="B25" s="15">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
         <v>102906.61</v>
       </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <v>0</v>
-      </c>
-      <c r="H25" s="23">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23">
-        <v>0</v>
-      </c>
-      <c r="J25" s="23">
-        <v>0</v>
-      </c>
-      <c r="K25" s="23">
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
         <v>79557.799999999988</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="23">
-        <v>0</v>
-      </c>
-      <c r="C26" s="23">
-        <v>0</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="B26" s="15">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+      <c r="D26" s="15">
         <v>2354</v>
       </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
-        <v>0</v>
-      </c>
-      <c r="H26" s="23">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23">
-        <v>0</v>
-      </c>
-      <c r="K26" s="23">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="15">
         <v>3509717.86</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="15">
         <v>2535025.06</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="15">
         <v>1251691.3600000001</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="15">
         <v>1179750.8500000001</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
         <v>3757109.96</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="15">
         <v>2747308.34</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="15">
         <v>3998640.1</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="15">
         <v>2822994.48</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="15">
         <v>1153573.58</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="15">
         <v>1147402.03</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="15">
         <v>2949256.59</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <v>1598691.13</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="23">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23">
-        <v>0</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="B28" s="15">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
         <v>4670.5</v>
       </c>
-      <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
-        <v>0</v>
-      </c>
-      <c r="K28" s="23">
-        <v>0</v>
-      </c>
-      <c r="L28" s="23">
-        <v>0</v>
-      </c>
-      <c r="M28" s="23">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <v>564743.97</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <v>12288094.620000001</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="15">
         <v>5008700.58</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="15">
         <v>11766210.289999999</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="15">
         <v>9024697.5300000012</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="15">
         <v>53091080.359999999</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="15">
         <v>19511394.52</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="15">
         <v>34481684.140000001</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="15">
         <v>5423723.9699999997</v>
       </c>
-      <c r="K29" s="23">
-        <v>0</v>
-      </c>
-      <c r="L29" s="23">
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
         <v>4622268.5599999996</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="20">
         <v>72087244.109999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="15">
         <v>595993.22</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="15">
         <v>448476.33</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="15">
         <v>507837.78</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="15">
         <v>119808.59</v>
       </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
-        <v>0</v>
-      </c>
-      <c r="I30" s="23">
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
         <v>23828.370000000003</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="15">
         <v>43451.5</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="15">
         <v>32790.67</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="15">
         <v>34764.33</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="20">
         <v>11302.61</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="15">
         <v>67556515.649999991</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="15">
         <v>48529599.870000042</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="15">
         <v>44598480.590000004</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="15">
         <v>30579260.269999988</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="15">
         <v>31677205.080000017</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="15">
         <v>40516958.340000018</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="15">
         <v>36345981.809999987</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="15">
         <v>51201679.460000008</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="15">
         <v>47140097.390000053</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="15">
         <v>45663866.940000042</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="15">
         <v>40748186.530000024</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="20">
         <v>41752640.840000004</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="15">
         <v>81042.61</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="15">
         <v>3299.33</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="15">
         <v>88952.72</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="15">
         <v>12225.329999999998</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="15">
         <v>9916.56</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="15">
         <v>42417.649999999994</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="15">
         <v>7494.52</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="15">
         <v>24854.69</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="15">
         <v>30367.809999999998</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="15">
         <v>85962.719999999987</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="15">
         <v>76721.740000000005</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="20">
         <v>101839.20999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="23">
-        <v>0</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
         <v>8358.82</v>
       </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
         <v>21.4</v>
       </c>
-      <c r="I33" s="23">
-        <v>0</v>
-      </c>
-      <c r="J33" s="23">
-        <v>0</v>
-      </c>
-      <c r="K33" s="23">
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
-        <v>0</v>
-      </c>
-      <c r="M33" s="23">
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="15">
         <v>33421260.769999977</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="15">
         <v>31847668.910000023</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="15">
         <v>28445515.459999986</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="15">
         <v>43519627.769999981</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="15">
         <v>36959518.139999986</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="15">
         <v>37351428.379999965</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="15">
         <v>35428935.839999996</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="15">
         <v>50624428.450000003</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="15">
         <v>38385992.230000019</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="15">
         <v>24322168.149999995</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="15">
         <v>29153646.610000014</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="20">
         <v>28059458.500000004</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>5251447.5599999987</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="15">
         <v>8800389.7400000002</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="15">
         <v>10475597.099999996</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="15">
         <v>8431466.3999999985</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="15">
         <v>7272037.6900000032</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="15">
         <v>11946698.869999997</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="15">
         <v>10161885.819999998</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="15">
         <v>10785010.389999995</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="15">
         <v>6783561.9799999995</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="15">
         <v>9935645.2200000025</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="15">
         <v>4705591.1899999995</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <v>3929583.7399999993</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="23">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
+      <c r="B36" s="15">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
         <v>42710.83</v>
       </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
         <v>670.61</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="15">
         <v>2759.98</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="15">
         <v>85796919.470000014</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="15">
         <v>90347596.169999987</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="15">
         <v>88197047.489999995</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="15">
         <v>104678764.36</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="15">
         <v>102008105.14999998</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="15">
         <v>101369435.58</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="15">
         <v>87424273.480000004</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="15">
         <v>127962680.60999998</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="15">
         <v>84571571.419999987</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="15">
         <v>126273584.32000002</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="15">
         <v>113373989.55000003</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="20">
         <v>121072912.39</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="15">
         <v>708873.51</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="15">
         <v>418817.6</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="15">
         <v>598638.05000000005</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="15">
         <v>1082082.57</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="15">
         <v>478335.9</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="15">
         <v>418339.2</v>
       </c>
-      <c r="H38" s="23">
-        <v>0</v>
-      </c>
-      <c r="I38" s="23">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23">
-        <v>0</v>
-      </c>
-      <c r="K38" s="23">
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
         <v>21861.63</v>
       </c>
-      <c r="L38" s="23">
-        <v>0</v>
-      </c>
-      <c r="M38" s="23">
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20">
         <v>35263.1</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="23">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="B39" s="15">
+        <v>0</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
         <v>12151.71</v>
       </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" s="23">
-        <v>0</v>
-      </c>
-      <c r="H39" s="23">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23">
-        <v>0</v>
-      </c>
-      <c r="J39" s="23">
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
         <v>71987.78</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="15">
         <v>794762.02</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="15">
         <v>174875.77000000002</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="23">
-        <v>0</v>
-      </c>
-      <c r="C40" s="23">
-        <v>0</v>
-      </c>
-      <c r="D40" s="23">
-        <v>0</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="B40" s="15">
+        <v>0</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
         <v>7213.05</v>
       </c>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
         <v>8387.7900000000009</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="15">
         <v>126934.13</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="15">
         <v>12600.04</v>
       </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="23">
-        <v>0</v>
-      </c>
-      <c r="L40" s="23">
-        <v>0</v>
-      </c>
-      <c r="M40" s="23">
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="15">
         <v>6109428.5899999999</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="15">
         <v>2596381.61</v>
       </c>
-      <c r="D41" s="23">
-        <v>0</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="D41" s="15">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
         <v>2041981.33</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="15">
         <v>1432424.79</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="15">
         <v>1213797.77</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="15">
         <v>1914131.13</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="15">
         <v>43542.85</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="15">
         <v>2179625.7799999998</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="15">
         <v>15759.84</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="15">
         <v>1117543.56</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="20">
         <v>3955757.9</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="15">
         <v>2800606.7500000005</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="15">
         <v>11360076.74</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="15">
         <v>4183272.1699999995</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="15">
         <v>4596173.5999999996</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="15">
         <v>2528090.2399999998</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="15">
         <v>3514843.4099999997</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="15">
         <v>4141545.3200000012</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="15">
         <v>4620989.92</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="15">
         <v>4413134.4300000006</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="15">
         <v>2409194.5700000003</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="15">
         <v>3506438.9600000004</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="20">
         <v>3385411.4500000007</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="15">
         <v>4394788.16</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="15">
         <v>492210.69</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="15">
         <v>4149935.58</v>
       </c>
-      <c r="E43" s="23">
-        <v>0</v>
-      </c>
-      <c r="F43" s="23">
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
         <v>4564840.51</v>
       </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
         <v>464187.16</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="15">
         <v>4254050.5</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="15">
         <v>484000.16</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="15">
         <v>4695355.17</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L43" s="15">
         <v>609880.06000000006</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="15">
         <v>5299372.2699999996</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="15">
         <v>8489.630000000001</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="15">
         <v>2226.29</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="15">
         <v>8801536.870000001</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="15">
         <v>6108909.4100000001</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="15">
         <v>7130590.0700000003</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="15">
         <v>5880134.04</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="15">
         <v>4386669.26</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="15">
         <v>8366185.0199999996</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="15">
         <v>8905640.6500000004</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="15">
         <v>5688836.4100000001</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="20">
         <v>1099114.75</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="15">
         <v>14230798.07</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="15">
         <v>16198300.82</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="15">
         <v>16883104.629999999</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="15">
         <v>12427357.360000001</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="15">
         <v>10937248.779999997</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="15">
         <v>11069846.190000003</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="15">
         <v>10470578.030000001</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="15">
         <v>14786939.359999999</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="15">
         <v>15581735.849999998</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="15">
         <v>17101583.320000008</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L45" s="15">
         <v>14457095.669999996</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="20">
         <v>13595415.960000001</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="15">
         <v>100169676.91000007</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="15">
         <v>86855052.960000008</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="15">
         <v>153276807.8000001</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="15">
         <v>145425924.97999996</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="15">
         <v>127054362.52000006</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="15">
         <v>144431953.80999991</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="15">
         <v>177822059.61000013</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="15">
         <v>133139702.1199999</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="15">
         <v>115478936.14000009</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="15">
         <v>123976866.88999997</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="15">
         <v>127502936.49000002</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="20">
         <v>160822191.74999985</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="15">
         <v>10032385.389999999</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="15">
         <v>16325480.16</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="15">
         <v>21712411.399999999</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="15">
         <v>23137858.469999999</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="15">
         <v>13192137.51</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="15">
         <v>22583652.580000002</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="15">
         <v>24789452.949999996</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="15">
         <v>12097400.85</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="15">
         <v>26885407.089999996</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="15">
         <v>26756222.279999997</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="15">
         <v>20562294.940000001</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>74148008.189999998</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="15">
         <v>1112452.57</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="15">
         <v>4404140.8099999996</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="15">
         <v>534829.39</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="15">
         <v>1033404.65</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="15">
         <v>414084.93000000011</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="15">
         <v>503247.75999999995</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="15">
         <v>3157762.64</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="15">
         <v>1320468.0900000001</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="15">
         <v>806231.89</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="15">
         <v>1177542.5000000005</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="15">
         <v>2171874.62</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <v>1483433.1199999996</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="15">
         <v>362164627.03000003</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="15">
         <v>320563187.30000001</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="15">
         <v>378408382.88999999</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="15">
         <v>300742860.00999999</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="15">
         <v>320380633.31000006</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="15">
         <v>485131982.8599999</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="15">
         <v>245326102.34999999</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="15">
         <v>455996591.03000009</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="15">
         <v>279725630.93000001</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="15">
         <v>373332660.74000001</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="15">
         <v>417584107.54000002</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <v>407285686.16000003</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="15">
         <v>1481915616.6099989</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="15">
         <v>1362206685.9699993</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="15">
         <v>1679760762.160002</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="15">
         <v>1384864948.4599955</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="15">
         <v>1467248331.1299982</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="15">
         <v>1369571833.2099957</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="15">
         <v>1508745746.98001</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="15">
         <v>1672521267.1599858</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="15">
         <v>1598402539.0600002</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="15">
         <v>1597416236.7599974</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="15">
         <v>1653871470.5499914</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="20">
         <v>1556587115.4400091</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="23">
-        <v>0</v>
-      </c>
-      <c r="C51" s="23">
-        <v>0</v>
-      </c>
-      <c r="D51" s="23">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="B51" s="15">
+        <v>0</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15">
         <v>35511.75</v>
       </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
-        <v>0</v>
-      </c>
-      <c r="I51" s="23">
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
+      <c r="I51" s="15">
         <v>11302.960000000001</v>
       </c>
-      <c r="J51" s="23">
-        <v>0</v>
-      </c>
-      <c r="K51" s="23">
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
         <v>13203.8</v>
       </c>
-      <c r="L51" s="23">
-        <v>0</v>
-      </c>
-      <c r="M51" s="23">
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
         <v>4344.49</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="15">
         <v>39751.199999999997</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="15">
         <v>316606.74</v>
       </c>
-      <c r="D52" s="23">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="D52" s="15">
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
         <v>19575.34</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="15">
         <v>317336.74</v>
       </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
         <v>15924.93</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="15">
         <v>58748.74</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="15">
         <v>58748.74</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="15">
         <v>97914.35</v>
       </c>
-      <c r="L52" s="23">
-        <v>0</v>
-      </c>
-      <c r="M52" s="23">
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
         <v>19606.650000000001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="23">
-        <v>0</v>
-      </c>
-      <c r="C53" s="23">
-        <v>0</v>
-      </c>
-      <c r="D53" s="23">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
-        <v>0</v>
-      </c>
-      <c r="I53" s="23">
-        <v>0</v>
-      </c>
-      <c r="J53" s="23">
-        <v>0</v>
-      </c>
-      <c r="K53" s="23">
-        <v>0</v>
-      </c>
-      <c r="L53" s="23">
+      <c r="B53" s="15">
+        <v>0</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
         <v>163002.31</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="20">
         <v>87427.829999999987</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="15">
         <v>307406080.93000013</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="15">
         <v>266904030.09000015</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="15">
         <v>371182374.27000052</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="15">
         <v>151487463.74000001</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="15">
         <v>128939859.72999988</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="15">
         <v>107306866.23000003</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="15">
         <v>111308115.24999999</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="15">
         <v>107895391.93000004</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="15">
         <v>101571121.48999998</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="15">
         <v>95202335.400000051</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="15">
         <v>114883256.51000008</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="20">
         <v>189343328.2000002</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="15">
         <v>112568.84</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="15">
         <v>48280224.240000002</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="15">
         <v>19095885.879999999</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="15">
         <v>82430655.350000024</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="15">
         <v>137915225.85999998</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="15">
         <v>224019306.96000001</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="15">
         <v>166807855.27999997</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="15">
         <v>155505514.78</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="15">
         <v>166491230.64999998</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="15">
         <v>243795881.09999999</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="15">
         <v>213650652.80999997</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="20">
         <v>221922927.02000001</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="15">
         <v>5330675.71</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="15">
         <v>7473195.0800000001</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="15">
         <v>14088405.029999999</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="15">
         <v>10529153.02</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="15">
         <v>10369446.83</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="15">
         <v>8347837.8300000001</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="15">
         <v>11091007.960000001</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="15">
         <v>7104799.8799999999</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="15">
         <v>11360449.890000001</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="15">
         <v>23672012.82</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="15">
         <v>16888149.359999999</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="20">
         <v>7945992.7700000005</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="15">
         <v>958900389.79999852</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="15">
         <v>901912639.76999986</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="15">
         <v>1029003779.2600002</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="15">
         <v>960903222.75000167</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="15">
         <v>1168922185.8499966</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="15">
         <v>1194032008.5299993</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="15">
         <v>1176480088.8200059</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="15">
         <v>1254827186.7899995</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="15">
         <v>1233795595.9999988</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="15">
         <v>1218844295.1300058</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="15">
         <v>1141141895.8599994</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="20">
         <v>1176797318.5499997</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="15">
         <v>31822158.420000002</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="15">
         <v>17464785.77</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="15">
         <v>22239012.600000001</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="15">
         <v>20448676.200000003</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="15">
         <v>22889427.149999999</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="15">
         <v>23613926.620000001</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="15">
         <v>28653823.390000004</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="15">
         <v>28777832.459999997</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="15">
         <v>18468523.52</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="15">
         <v>21644625.869999997</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="15">
         <v>25093683.810000002</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="20">
         <v>21720494.350000001</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="27">
         <v>341785613.69999999</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="27">
         <v>320417498.5</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="27">
         <v>363493937.19999999</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="27">
         <v>323409294.10000002</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="27">
         <v>365504152.39999998</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="27">
         <v>363365947.10000002</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="27">
         <v>342908629.69999999</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="27">
         <v>385708584.39999998</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="27">
         <v>358280370.39999998</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="27">
         <v>366073575.10000002</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="27">
         <v>404745105.60000002</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="28">
         <v>392392282.10000002</v>
       </c>
     </row>
@@ -5934,5 +6456,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>